--- a/Docs/需求/範本匯入紀錄/(正式40)1140211給資訊室-專家資料匯入-永續1295-1301xlsx.xlsx
+++ b/Docs/需求/範本匯入紀錄/(正式40)1140211給資訊室-專家資料匯入-永續1295-1301xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ftisorgtw-my.sharepoint.com/personal/hanyi_cheng_ftis_org_tw/Documents/專家資料庫交接/3.給資訊室資料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\範本匯入紀錄\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{0A870CB4-1720-4D5C-A5FF-7D59F94F730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{319ADA94-03D6-4F7D-A17C-8331918131EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7634A352-34A0-47F5-92DD-52913F1598A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A05B2511-9542-495D-AF87-DD115F339648}"/>
   </bookViews>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <r>
       <rPr>
@@ -1240,18 +1240,6 @@
       <t>主任</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台北市</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2622,45 +2610,45 @@
   <dimension ref="A1:AE73"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="16" customWidth="1"/>
     <col min="2" max="2" width="6" style="8" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="45.375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="21" customWidth="1"/>
-    <col min="12" max="12" width="16.875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="20.875" style="20" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="20" customWidth="1"/>
-    <col min="15" max="16" width="16.875" style="19" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="45.36328125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="16.90625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="20.90625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="16.90625" style="20" customWidth="1"/>
+    <col min="15" max="16" width="16.90625" style="19" customWidth="1"/>
     <col min="17" max="17" width="36" style="20" customWidth="1"/>
-    <col min="18" max="19" width="16.875" style="19" customWidth="1"/>
-    <col min="20" max="21" width="16.875" style="20" customWidth="1"/>
-    <col min="22" max="22" width="19.75" style="19" customWidth="1"/>
-    <col min="23" max="23" width="35.125" style="27" customWidth="1"/>
-    <col min="24" max="24" width="50.125" style="16" customWidth="1"/>
-    <col min="25" max="25" width="33.375" style="16" customWidth="1"/>
-    <col min="26" max="26" width="27.75" style="16" customWidth="1"/>
-    <col min="27" max="27" width="48.5" style="8" customWidth="1"/>
-    <col min="28" max="28" width="21.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.90625" style="19" customWidth="1"/>
+    <col min="20" max="21" width="16.90625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="19.7265625" style="19" customWidth="1"/>
+    <col min="23" max="23" width="35.08984375" style="27" customWidth="1"/>
+    <col min="24" max="24" width="50.08984375" style="16" customWidth="1"/>
+    <col min="25" max="25" width="33.36328125" style="16" customWidth="1"/>
+    <col min="26" max="26" width="27.7265625" style="16" customWidth="1"/>
+    <col min="27" max="27" width="48.453125" style="8" customWidth="1"/>
+    <col min="28" max="28" width="21.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="16" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59" style="16" customWidth="1"/>
     <col min="32" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <f>SUBTOTAL(3,$C$2:C2)*1</f>
@@ -2792,19 +2780,19 @@
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="10"/>
       <c r="U2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>34</v>
@@ -2813,10 +2801,10 @@
         <v>50</v>
       </c>
       <c r="X2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="Z2" s="5">
         <v>113</v>
@@ -2829,29 +2817,29 @@
       <c r="AD2" s="10"/>
       <c r="AE2" s="10"/>
     </row>
-    <row r="3" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <f>SUBTOTAL(3,$C$2:C3)*1</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="6" t="s">
@@ -2866,19 +2854,19 @@
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="Q3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="10"/>
       <c r="U3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>34</v>
@@ -2887,10 +2875,10 @@
         <v>50</v>
       </c>
       <c r="X3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="Z3" s="5">
         <v>113</v>
@@ -2903,29 +2891,29 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
     </row>
-    <row r="4" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <f>SUBTOTAL(3,$C$2:C4)*1</f>
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>38</v>
@@ -2942,19 +2930,19 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="10"/>
       <c r="U4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>34</v>
@@ -2963,10 +2951,10 @@
         <v>50</v>
       </c>
       <c r="X4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="Z4" s="5">
         <v>113</v>
@@ -2979,29 +2967,29 @@
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
     </row>
-    <row r="5" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <f>SUBTOTAL(3,$C$2:C5)*1</f>
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
@@ -3016,19 +3004,19 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="10"/>
       <c r="U5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>34</v>
@@ -3037,10 +3025,10 @@
         <v>50</v>
       </c>
       <c r="X5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="Z5" s="5">
         <v>113</v>
@@ -3053,29 +3041,29 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
     </row>
-    <row r="6" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <f>SUBTOTAL(3,$C$2:C6)*1</f>
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>45</v>
@@ -3086,25 +3074,25 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="R6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="U6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" s="6" t="s">
         <v>34</v>
@@ -3113,10 +3101,10 @@
         <v>50</v>
       </c>
       <c r="X6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="Z6" s="5">
         <v>113</v>
@@ -3129,29 +3117,29 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
     </row>
-    <row r="7" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <f>SUBTOTAL(3,$C$2:C7)*1</f>
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="6" t="s">
@@ -3166,19 +3154,19 @@
         <v>48</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="10"/>
       <c r="U7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V7" s="6" t="s">
         <v>34</v>
@@ -3187,10 +3175,10 @@
         <v>50</v>
       </c>
       <c r="X7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="Z7" s="5">
         <v>113</v>
@@ -3203,29 +3191,29 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
     </row>
-    <row r="8" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <f>SUBTOTAL(3,$C$2:C8)*1</f>
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>49</v>
@@ -3236,25 +3224,25 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="10" t="s">
+      <c r="R8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="U8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V8" s="6" t="s">
         <v>34</v>
@@ -3263,10 +3251,10 @@
         <v>50</v>
       </c>
       <c r="X8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="Z8" s="5">
         <v>113</v>
@@ -3279,7 +3267,7 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
     </row>
-    <row r="9" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="1">
         <f>SUBTOTAL(3,$C$2:C9)*1</f>
@@ -3315,7 +3303,7 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="1">
         <f>SUBTOTAL(3,$C$2:C10)*1</f>
@@ -3351,7 +3339,7 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="1">
         <f>SUBTOTAL(3,$C$2:C11)*1</f>
@@ -3387,7 +3375,7 @@
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="1">
         <f>SUBTOTAL(3,$C$2:C12)*1</f>
@@ -3423,7 +3411,7 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="1">
         <f>SUBTOTAL(3,$C$2:C13)*1</f>
@@ -3459,7 +3447,7 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="1">
         <f>SUBTOTAL(3,$C$2:C14)*1</f>
@@ -3495,7 +3483,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="1">
         <f>SUBTOTAL(3,$C$2:C15)*1</f>
@@ -3531,7 +3519,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="1">
         <f>SUBTOTAL(3,$C$2:C16)*1</f>
@@ -3567,7 +3555,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="1">
         <f>SUBTOTAL(3,$C$2:C17)*1</f>
@@ -3603,7 +3591,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="1">
         <f>SUBTOTAL(3,$C$2:C18)*1</f>
@@ -3639,7 +3627,7 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="1">
         <f>SUBTOTAL(3,$C$2:C19)*1</f>
@@ -3675,7 +3663,7 @@
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="1">
         <f>SUBTOTAL(3,$C$2:C20)*1</f>
@@ -3711,7 +3699,7 @@
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="1">
         <f>SUBTOTAL(3,$C$2:C21)*1</f>
@@ -3747,7 +3735,7 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="1">
         <f>SUBTOTAL(3,$C$2:C22)*1</f>
@@ -3783,7 +3771,7 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="1">
         <f>SUBTOTAL(3,$C$2:C23)*1</f>
@@ -3819,7 +3807,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="1">
         <f>SUBTOTAL(3,$C$2:C24)*1</f>
@@ -3855,7 +3843,7 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="1">
         <f>SUBTOTAL(3,$C$2:C25)*1</f>
@@ -3891,7 +3879,7 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="1">
         <f>SUBTOTAL(3,$C$2:C26)*1</f>
@@ -3927,7 +3915,7 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="1">
         <f>SUBTOTAL(3,$C$2:C27)*1</f>
@@ -3963,7 +3951,7 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="1">
         <f>SUBTOTAL(3,$C$2:C28)*1</f>
@@ -3999,7 +3987,7 @@
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
     </row>
-    <row r="29" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="1">
         <f>SUBTOTAL(3,$C$2:C29)*1</f>
@@ -4035,7 +4023,7 @@
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
     </row>
-    <row r="30" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="1">
         <f>SUBTOTAL(3,$C$2:C30)*1</f>
@@ -4071,7 +4059,7 @@
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
     </row>
-    <row r="31" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="1">
         <f>SUBTOTAL(3,$C$2:C31)*1</f>
@@ -4107,7 +4095,7 @@
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
     </row>
-    <row r="32" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="1">
         <f>SUBTOTAL(3,$C$2:C32)*1</f>
@@ -4143,7 +4131,7 @@
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
     </row>
-    <row r="33" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="1">
         <f>SUBTOTAL(3,$C$2:C33)*1</f>
@@ -4179,7 +4167,7 @@
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
     </row>
-    <row r="34" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="1">
         <f>SUBTOTAL(3,$C$2:C34)*1</f>
@@ -4215,7 +4203,7 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
     </row>
-    <row r="35" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="1">
         <f>SUBTOTAL(3,$C$2:C35)*1</f>
@@ -4251,7 +4239,7 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
     </row>
-    <row r="36" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="1">
         <f>SUBTOTAL(3,$C$2:C36)*1</f>
@@ -4287,7 +4275,7 @@
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
     </row>
-    <row r="37" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="1">
         <f>SUBTOTAL(3,$C$2:C37)*1</f>
@@ -4323,7 +4311,7 @@
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
     </row>
-    <row r="38" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="1">
         <f>SUBTOTAL(3,$C$2:C38)*1</f>
@@ -4359,7 +4347,7 @@
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
     </row>
-    <row r="39" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="1">
         <f>SUBTOTAL(3,$C$2:C39)*1</f>
@@ -4395,7 +4383,7 @@
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
     </row>
-    <row r="40" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="1">
         <f>SUBTOTAL(3,$C$2:C40)*1</f>
@@ -4431,7 +4419,7 @@
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
     </row>
-    <row r="41" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="1">
         <f>SUBTOTAL(3,$C$2:C41)*1</f>
@@ -4467,7 +4455,7 @@
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
     </row>
-    <row r="42" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="1">
         <f>SUBTOTAL(3,$C$2:C42)*1</f>
@@ -4503,7 +4491,7 @@
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
     </row>
-    <row r="43" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="1">
         <f>SUBTOTAL(3,$C$2:C43)*1</f>
@@ -4539,7 +4527,7 @@
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
     </row>
-    <row r="44" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="1">
         <f>SUBTOTAL(3,$C$2:C44)*1</f>
@@ -4575,7 +4563,7 @@
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
     </row>
-    <row r="45" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="1">
         <f>SUBTOTAL(3,$C$2:C45)*1</f>
@@ -4611,7 +4599,7 @@
       <c r="AD45" s="11"/>
       <c r="AE45" s="11"/>
     </row>
-    <row r="46" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="1">
         <f>SUBTOTAL(3,$C$2:C46)*1</f>
@@ -4647,7 +4635,7 @@
       <c r="AD46" s="11"/>
       <c r="AE46" s="11"/>
     </row>
-    <row r="47" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="1">
         <f>SUBTOTAL(3,$C$2:C47)*1</f>
@@ -4683,7 +4671,7 @@
       <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
     </row>
-    <row r="48" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="1">
         <f>SUBTOTAL(3,$C$2:C48)*1</f>
@@ -4719,7 +4707,7 @@
       <c r="AD48" s="11"/>
       <c r="AE48" s="11"/>
     </row>
-    <row r="49" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="1">
         <f>SUBTOTAL(3,$C$2:C49)*1</f>
@@ -4755,7 +4743,7 @@
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
     </row>
-    <row r="50" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="1">
         <f>SUBTOTAL(3,$C$2:C50)*1</f>
@@ -4791,7 +4779,7 @@
       <c r="AD50" s="11"/>
       <c r="AE50" s="11"/>
     </row>
-    <row r="51" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="1">
         <f>SUBTOTAL(3,$C$2:C51)*1</f>
@@ -4827,7 +4815,7 @@
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
     </row>
-    <row r="52" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="1">
         <f>SUBTOTAL(3,$C$2:C52)*1</f>
@@ -4863,7 +4851,7 @@
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
     </row>
-    <row r="53" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="1">
         <f>SUBTOTAL(3,$C$2:C53)*1</f>
@@ -4899,7 +4887,7 @@
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
     </row>
-    <row r="54" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="1">
         <f>SUBTOTAL(3,$C$2:C54)*1</f>
@@ -4935,7 +4923,7 @@
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
     </row>
-    <row r="55" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="1">
         <f>SUBTOTAL(3,$C$2:C55)*1</f>
@@ -4971,7 +4959,7 @@
       <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
     </row>
-    <row r="56" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="1">
         <f>SUBTOTAL(3,$C$2:C56)*1</f>
@@ -5007,7 +4995,7 @@
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
     </row>
-    <row r="57" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="1">
         <f>SUBTOTAL(3,$C$2:C57)*1</f>
@@ -5043,7 +5031,7 @@
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
     </row>
-    <row r="58" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="1">
         <f>SUBTOTAL(3,$C$2:C58)*1</f>
@@ -5079,7 +5067,7 @@
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
     </row>
-    <row r="59" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="1">
         <f>SUBTOTAL(3,$C$2:C59)*1</f>
@@ -5115,7 +5103,7 @@
       <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
     </row>
-    <row r="60" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="1">
         <f>SUBTOTAL(3,$C$2:C60)*1</f>
@@ -5151,7 +5139,7 @@
       <c r="AD60" s="11"/>
       <c r="AE60" s="11"/>
     </row>
-    <row r="61" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="1">
         <f>SUBTOTAL(3,$C$2:C61)*1</f>
@@ -5187,7 +5175,7 @@
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
     </row>
-    <row r="62" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="1">
         <f>SUBTOTAL(3,$C$2:C62)*1</f>
@@ -5223,7 +5211,7 @@
       <c r="AD62" s="11"/>
       <c r="AE62" s="11"/>
     </row>
-    <row r="63" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="1">
         <f>SUBTOTAL(3,$C$2:C63)*1</f>
@@ -5259,7 +5247,7 @@
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
     </row>
-    <row r="64" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="1">
         <f>SUBTOTAL(3,$C$2:C64)*1</f>
@@ -5295,7 +5283,7 @@
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
     </row>
-    <row r="65" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="1">
         <f>SUBTOTAL(3,$C$2:C65)*1</f>
@@ -5331,7 +5319,7 @@
       <c r="AD65" s="11"/>
       <c r="AE65" s="11"/>
     </row>
-    <row r="66" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" s="13" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="1">
         <f>SUBTOTAL(3,$C$2:C66)*1</f>
@@ -5367,7 +5355,7 @@
       <c r="AD66" s="11"/>
       <c r="AE66" s="11"/>
     </row>
-    <row r="67" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="1">
         <f>SUBTOTAL(3,$C$2:C67)*1</f>
@@ -5403,7 +5391,7 @@
       <c r="AD67" s="10"/>
       <c r="AE67" s="10"/>
     </row>
-    <row r="68" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="1">
         <f>SUBTOTAL(3,$C$2:C68)*1</f>
@@ -5439,7 +5427,7 @@
       <c r="AD68" s="10"/>
       <c r="AE68" s="10"/>
     </row>
-    <row r="69" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="1">
         <f>SUBTOTAL(3,$C$2:C69)*1</f>
@@ -5475,7 +5463,7 @@
       <c r="AD69" s="10"/>
       <c r="AE69" s="10"/>
     </row>
-    <row r="70" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="1">
         <f>SUBTOTAL(3,$C$2:C70)*1</f>
@@ -5511,7 +5499,7 @@
       <c r="AD70" s="10"/>
       <c r="AE70" s="10"/>
     </row>
-    <row r="71" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="1">
         <f>SUBTOTAL(3,$C$2:C71)*1</f>
@@ -5547,7 +5535,7 @@
       <c r="AD71" s="10"/>
       <c r="AE71" s="10"/>
     </row>
-    <row r="72" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="1">
         <f>SUBTOTAL(3,$C$2:C72)*1</f>
@@ -5583,7 +5571,7 @@
       <c r="AD72" s="10"/>
       <c r="AE72" s="10"/>
     </row>
-    <row r="73" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="1">
         <f>SUBTOTAL(3,$C$2:C73)*1</f>
